--- a/poo/proyecto/a.xlsx
+++ b/poo/proyecto/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luis/Documents/GitHub/escom/poo/proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5E7B32-BA43-D743-98E6-DEC22F9408F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D8D9C0-8B44-7143-B3BE-83F7310F2D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E7648FF4-703D-D142-B859-CA6B12C28FF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>Language</t>
   </si>
@@ -187,13 +187,49 @@
   </si>
   <si>
     <t>is_retweet</t>
+  </si>
+  <si>
+    <t>follows</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>visualized</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>relation_type</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>super_follows</t>
+  </si>
+  <si>
+    <t>silenced</t>
+  </si>
+  <si>
+    <t>avilable</t>
+  </si>
+  <si>
+    <t>not_verified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +241,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,6 +291,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,15 +620,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0A096F-7994-EC4E-8E6E-8E350FE9E6DE}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,8 +699,18 @@
         <v>40</v>
       </c>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -671,8 +753,14 @@
       <c r="U2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -739,8 +827,20 @@
       <c r="V3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -803,8 +903,20 @@
       <c r="V4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -863,8 +975,20 @@
       <c r="V5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -899,10 +1023,22 @@
         <v>44</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
@@ -929,8 +1065,14 @@
       <c r="T7" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -954,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -971,8 +1113,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -990,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1004,7 +1152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1018,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1030,6 +1178,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1047,38 +1196,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555640D2-F941-1A4C-B356-006AD3550338}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
